--- a/data/trans_dic/P5_3-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P5_3-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de azotea en su vivienda</t>
+          <t>Población que disfruta de azotea en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,7 +607,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>17,89%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,39; 18,62</t>
+          <t>12,54; 18,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,18; 20,63</t>
+          <t>14,06; 20,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,34; 19,79</t>
+          <t>14,31; 19,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,99; 21,8</t>
+          <t>15,96; 21,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,2; 18,08</t>
+          <t>14,36; 18,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,95; 20,29</t>
+          <t>15,82; 20,02</t>
         </is>
       </c>
     </row>
@@ -686,7 +687,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>32,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +697,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>31,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>31,84%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,75; 39,92</t>
+          <t>31,59; 39,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,69; 38,87</t>
+          <t>28,03; 36,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,58; 39,25</t>
+          <t>31,32; 39,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,57; 36,33</t>
+          <t>27,18; 35,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,71; 38,55</t>
+          <t>32,62; 38,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,78; 36,35</t>
+          <t>28,61; 34,73</t>
         </is>
       </c>
     </row>
@@ -761,22 +762,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>28,11%</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>33,96%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>39,31%</t>
+          <t>39,32%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>38,36%</t>
+          <t>39,71%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>34,82%</t>
+          <t>36,8%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,02; 36,45</t>
+          <t>20,2; 35,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,15; 40,48</t>
+          <t>24,99; 43,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,64; 46,78</t>
+          <t>32,09; 46,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,83; 47,06</t>
+          <t>31,73; 48,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,12; 39,26</t>
+          <t>28,16; 39,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,42; 39,99</t>
+          <t>30,08; 42,94</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
+          <t>25,3%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>25,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>25,59%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,48; 27,42</t>
+          <t>22,44; 27,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,92; 28,42</t>
+          <t>22,92; 28,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,53; 28,81</t>
+          <t>24,32; 28,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,55; 28,43</t>
+          <t>23,58; 28,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,11; 27,39</t>
+          <t>24,13; 27,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,95; 27,75</t>
+          <t>23,86; 27,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de azotea en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>248388</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>282149</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>303967</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>337052</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>552354</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>619201</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>205658; 302758</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>232394; 335436</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>256279; 355045</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>288858; 390628</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>492623; 628172</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>547542; 693218</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>435.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>325.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>494620</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>446903</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>494465</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>433715</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>989085</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>880619</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>438000; 552611</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>385122; 507215</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>441597; 550018</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>378231; 487822</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>912213; 1076834</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>791280; 960386</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>118823</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>143574</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>161954</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>163563</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>280778</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>307137</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>85422; 151277</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>105674; 183948</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>132181; 192956</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>130693; 198556</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>235037; 326821</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>251109; 358452</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>350.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>306.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>435.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>354.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>785.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>660.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>861831</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>872627</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>960386</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>934330</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1822217</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1806957</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>774218; 950960</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>790458; 970930</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>878444; 1041532</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>851720; 1012069</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1704229; 1945180</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1684963; 1929632</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>